--- a/horarios_optimizados-862-push_gap_0.80.xlsx
+++ b/horarios_optimizados-862-push_gap_0.80.xlsx
@@ -627,67 +627,19 @@
       <c r="J5" s="4" t="inlineStr"/>
       <c r="K5" s="4" t="inlineStr"/>
       <c r="L5" s="4" t="inlineStr"/>
-      <c r="M5" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="N5" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="O5" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="P5" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="M5" s="4" t="inlineStr"/>
+      <c r="N5" s="4" t="inlineStr"/>
+      <c r="O5" s="4" t="inlineStr"/>
+      <c r="P5" s="4" t="inlineStr"/>
       <c r="Q5" s="4" t="inlineStr"/>
-      <c r="R5" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="S5" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="T5" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="U5" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="V5" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="W5" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="X5" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="Y5" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="R5" s="4" t="inlineStr"/>
+      <c r="S5" s="4" t="inlineStr"/>
+      <c r="T5" s="4" t="inlineStr"/>
+      <c r="U5" s="4" t="inlineStr"/>
+      <c r="V5" s="4" t="inlineStr"/>
+      <c r="W5" s="4" t="inlineStr"/>
+      <c r="X5" s="4" t="inlineStr"/>
+      <c r="Y5" s="4" t="inlineStr"/>
       <c r="Z5" s="4" t="inlineStr"/>
     </row>
     <row r="6">
@@ -784,19 +736,27 @@
       <c r="G7" s="4" t="inlineStr"/>
       <c r="H7" s="4" t="inlineStr"/>
       <c r="I7" s="4" t="inlineStr"/>
-      <c r="J7" s="4" t="inlineStr"/>
-      <c r="K7" s="4" t="inlineStr"/>
-      <c r="L7" s="4" t="inlineStr"/>
+      <c r="J7" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="K7" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="L7" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="M7" s="5" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="N7" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="N7" s="4" t="inlineStr"/>
       <c r="O7" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -822,7 +782,11 @@
           <t>R</t>
         </is>
       </c>
-      <c r="T7" s="4" t="inlineStr"/>
+      <c r="T7" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="U7" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -856,20 +820,32 @@
           <t>Jue</t>
         </is>
       </c>
-      <c r="B8" s="4" t="inlineStr"/>
-      <c r="C8" s="4" t="inlineStr"/>
-      <c r="D8" s="4" t="inlineStr"/>
-      <c r="E8" s="4" t="inlineStr"/>
+      <c r="B8" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D8" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="F8" s="5" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="G8" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="G8" s="4" t="inlineStr"/>
       <c r="H8" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -885,10 +861,26 @@
           <t>R</t>
         </is>
       </c>
-      <c r="K8" s="4" t="inlineStr"/>
-      <c r="L8" s="4" t="inlineStr"/>
-      <c r="M8" s="4" t="inlineStr"/>
-      <c r="N8" s="4" t="inlineStr"/>
+      <c r="K8" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="L8" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="M8" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="N8" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="O8" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -919,31 +911,11 @@
           <t>R</t>
         </is>
       </c>
-      <c r="U8" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="V8" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="W8" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="X8" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="Y8" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="U8" s="4" t="inlineStr"/>
+      <c r="V8" s="4" t="inlineStr"/>
+      <c r="W8" s="4" t="inlineStr"/>
+      <c r="X8" s="4" t="inlineStr"/>
+      <c r="Y8" s="4" t="inlineStr"/>
       <c r="Z8" s="4" t="inlineStr"/>
     </row>
     <row r="9">
@@ -977,17 +949,17 @@
           <t>R</t>
         </is>
       </c>
-      <c r="G9" s="4" t="inlineStr"/>
+      <c r="G9" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="H9" s="5" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="I9" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="I9" s="4" t="inlineStr"/>
       <c r="J9" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1018,31 +990,11 @@
           <t>R</t>
         </is>
       </c>
-      <c r="P9" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="Q9" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="R9" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="S9" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="T9" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="P9" s="4" t="inlineStr"/>
+      <c r="Q9" s="4" t="inlineStr"/>
+      <c r="R9" s="4" t="inlineStr"/>
+      <c r="S9" s="4" t="inlineStr"/>
+      <c r="T9" s="4" t="inlineStr"/>
       <c r="U9" s="4" t="inlineStr"/>
       <c r="V9" s="4" t="inlineStr"/>
       <c r="W9" s="4" t="inlineStr"/>
@@ -1057,31 +1009,11 @@
         </is>
       </c>
       <c r="B10" s="4" t="inlineStr"/>
-      <c r="C10" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D10" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="E10" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="F10" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="G10" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="C10" s="4" t="inlineStr"/>
+      <c r="D10" s="4" t="inlineStr"/>
+      <c r="E10" s="4" t="inlineStr"/>
+      <c r="F10" s="4" t="inlineStr"/>
+      <c r="G10" s="4" t="inlineStr"/>
       <c r="H10" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1092,10 +1024,22 @@
           <t>R</t>
         </is>
       </c>
-      <c r="J10" s="4" t="inlineStr"/>
-      <c r="K10" s="4" t="inlineStr"/>
+      <c r="J10" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="K10" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="L10" s="4" t="inlineStr"/>
-      <c r="M10" s="4" t="inlineStr"/>
+      <c r="M10" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="N10" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1151,8 +1095,16 @@
           <t>R</t>
         </is>
       </c>
-      <c r="Y10" s="4" t="inlineStr"/>
-      <c r="Z10" s="4" t="inlineStr"/>
+      <c r="Y10" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="Z10" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="4" t="inlineStr">
@@ -1170,19 +1122,67 @@
       <c r="I11" s="4" t="inlineStr"/>
       <c r="J11" s="4" t="inlineStr"/>
       <c r="K11" s="4" t="inlineStr"/>
-      <c r="L11" s="4" t="inlineStr"/>
-      <c r="M11" s="4" t="inlineStr"/>
-      <c r="N11" s="4" t="inlineStr"/>
-      <c r="O11" s="4" t="inlineStr"/>
-      <c r="P11" s="4" t="inlineStr"/>
-      <c r="Q11" s="4" t="inlineStr"/>
+      <c r="L11" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="M11" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="N11" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="O11" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="P11" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="Q11" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="R11" s="4" t="inlineStr"/>
-      <c r="S11" s="4" t="inlineStr"/>
-      <c r="T11" s="4" t="inlineStr"/>
-      <c r="U11" s="4" t="inlineStr"/>
-      <c r="V11" s="4" t="inlineStr"/>
-      <c r="W11" s="4" t="inlineStr"/>
-      <c r="X11" s="4" t="inlineStr"/>
+      <c r="S11" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="T11" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="U11" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="V11" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="W11" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="X11" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="Y11" s="4" t="inlineStr"/>
       <c r="Z11" s="4" t="inlineStr"/>
     </row>
@@ -1281,20 +1281,72 @@
           <t>Lun</t>
         </is>
       </c>
-      <c r="B15" s="4" t="inlineStr"/>
-      <c r="C15" s="4" t="inlineStr"/>
-      <c r="D15" s="4" t="inlineStr"/>
-      <c r="E15" s="4" t="inlineStr"/>
-      <c r="F15" s="4" t="inlineStr"/>
-      <c r="G15" s="4" t="inlineStr"/>
+      <c r="B15" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D15" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="E15" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="F15" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="G15" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="H15" s="4" t="inlineStr"/>
-      <c r="I15" s="4" t="inlineStr"/>
-      <c r="J15" s="4" t="inlineStr"/>
-      <c r="K15" s="4" t="inlineStr"/>
-      <c r="L15" s="4" t="inlineStr"/>
-      <c r="M15" s="4" t="inlineStr"/>
-      <c r="N15" s="4" t="inlineStr"/>
-      <c r="O15" s="4" t="inlineStr"/>
+      <c r="I15" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="J15" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="K15" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="L15" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="M15" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="N15" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="O15" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="P15" s="4" t="inlineStr"/>
       <c r="Q15" s="4" t="inlineStr"/>
       <c r="R15" s="4" t="inlineStr"/>
@@ -1353,11 +1405,7 @@
           <t>R</t>
         </is>
       </c>
-      <c r="J16" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="J16" s="4" t="inlineStr"/>
       <c r="K16" s="4" t="inlineStr"/>
       <c r="L16" s="4" t="inlineStr"/>
       <c r="M16" s="4" t="inlineStr"/>
@@ -1381,21 +1429,9 @@
           <t>R</t>
         </is>
       </c>
-      <c r="R16" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="S16" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="T16" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="R16" s="4" t="inlineStr"/>
+      <c r="S16" s="4" t="inlineStr"/>
+      <c r="T16" s="4" t="inlineStr"/>
       <c r="U16" s="4" t="inlineStr"/>
       <c r="V16" s="4" t="inlineStr"/>
       <c r="W16" s="4" t="inlineStr"/>
@@ -1439,22 +1475,10 @@
           <t>R</t>
         </is>
       </c>
-      <c r="H17" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="H17" s="4" t="inlineStr"/>
       <c r="I17" s="4" t="inlineStr"/>
-      <c r="J17" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="K17" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="J17" s="4" t="inlineStr"/>
+      <c r="K17" s="4" t="inlineStr"/>
       <c r="L17" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1470,13 +1494,41 @@
           <t>R</t>
         </is>
       </c>
-      <c r="O17" s="4" t="inlineStr"/>
-      <c r="P17" s="4" t="inlineStr"/>
-      <c r="Q17" s="4" t="inlineStr"/>
-      <c r="R17" s="4" t="inlineStr"/>
-      <c r="S17" s="4" t="inlineStr"/>
-      <c r="T17" s="4" t="inlineStr"/>
-      <c r="U17" s="4" t="inlineStr"/>
+      <c r="O17" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="P17" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="Q17" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="R17" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="S17" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="T17" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="U17" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="V17" s="4" t="inlineStr"/>
       <c r="W17" s="4" t="inlineStr"/>
       <c r="X17" s="4" t="inlineStr"/>
@@ -1509,30 +1561,34 @@
           <t>R</t>
         </is>
       </c>
-      <c r="F18" s="4" t="inlineStr"/>
-      <c r="G18" s="4" t="inlineStr"/>
-      <c r="H18" s="4" t="inlineStr"/>
-      <c r="I18" s="4" t="inlineStr"/>
+      <c r="F18" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="G18" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="H18" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="I18" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="J18" s="5" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="K18" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="L18" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="M18" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="K18" s="4" t="inlineStr"/>
+      <c r="L18" s="4" t="inlineStr"/>
+      <c r="M18" s="4" t="inlineStr"/>
       <c r="N18" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1553,26 +1609,10 @@
           <t>R</t>
         </is>
       </c>
-      <c r="R18" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="S18" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="T18" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="U18" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="R18" s="4" t="inlineStr"/>
+      <c r="S18" s="4" t="inlineStr"/>
+      <c r="T18" s="4" t="inlineStr"/>
+      <c r="U18" s="4" t="inlineStr"/>
       <c r="V18" s="4" t="inlineStr"/>
       <c r="W18" s="4" t="inlineStr"/>
       <c r="X18" s="4" t="inlineStr"/>
@@ -1622,16 +1662,8 @@
       </c>
       <c r="I19" s="4" t="inlineStr"/>
       <c r="J19" s="4" t="inlineStr"/>
-      <c r="K19" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="L19" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="K19" s="4" t="inlineStr"/>
+      <c r="L19" s="4" t="inlineStr"/>
       <c r="M19" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1647,13 +1679,41 @@
           <t>R</t>
         </is>
       </c>
-      <c r="P19" s="4" t="inlineStr"/>
-      <c r="Q19" s="4" t="inlineStr"/>
-      <c r="R19" s="4" t="inlineStr"/>
-      <c r="S19" s="4" t="inlineStr"/>
-      <c r="T19" s="4" t="inlineStr"/>
-      <c r="U19" s="4" t="inlineStr"/>
-      <c r="V19" s="4" t="inlineStr"/>
+      <c r="P19" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="Q19" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="R19" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="S19" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="T19" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="U19" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="V19" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="W19" s="4" t="inlineStr"/>
       <c r="X19" s="4" t="inlineStr"/>
       <c r="Y19" s="4" t="inlineStr"/>
@@ -1666,39 +1726,27 @@
         </is>
       </c>
       <c r="B20" s="4" t="inlineStr"/>
-      <c r="C20" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D20" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="E20" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="F20" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="G20" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="H20" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="I20" s="4" t="inlineStr"/>
-      <c r="J20" s="4" t="inlineStr"/>
-      <c r="K20" s="4" t="inlineStr"/>
+      <c r="C20" s="4" t="inlineStr"/>
+      <c r="D20" s="4" t="inlineStr"/>
+      <c r="E20" s="4" t="inlineStr"/>
+      <c r="F20" s="4" t="inlineStr"/>
+      <c r="G20" s="4" t="inlineStr"/>
+      <c r="H20" s="4" t="inlineStr"/>
+      <c r="I20" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="J20" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="K20" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="L20" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1729,11 +1777,7 @@
           <t>R</t>
         </is>
       </c>
-      <c r="R20" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="R20" s="4" t="inlineStr"/>
       <c r="S20" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1754,10 +1798,26 @@
           <t>R</t>
         </is>
       </c>
-      <c r="W20" s="4" t="inlineStr"/>
-      <c r="X20" s="4" t="inlineStr"/>
-      <c r="Y20" s="4" t="inlineStr"/>
-      <c r="Z20" s="4" t="inlineStr"/>
+      <c r="W20" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="X20" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="Y20" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="Z20" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="4" t="inlineStr">
@@ -1772,82 +1832,22 @@
       <c r="F21" s="4" t="inlineStr"/>
       <c r="G21" s="4" t="inlineStr"/>
       <c r="H21" s="4" t="inlineStr"/>
-      <c r="I21" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="J21" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="K21" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="L21" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="M21" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="N21" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="O21" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="P21" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="Q21" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="R21" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="I21" s="4" t="inlineStr"/>
+      <c r="J21" s="4" t="inlineStr"/>
+      <c r="K21" s="4" t="inlineStr"/>
+      <c r="L21" s="4" t="inlineStr"/>
+      <c r="M21" s="4" t="inlineStr"/>
+      <c r="N21" s="4" t="inlineStr"/>
+      <c r="O21" s="4" t="inlineStr"/>
+      <c r="P21" s="4" t="inlineStr"/>
+      <c r="Q21" s="4" t="inlineStr"/>
+      <c r="R21" s="4" t="inlineStr"/>
       <c r="S21" s="4" t="inlineStr"/>
-      <c r="T21" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="U21" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="V21" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="W21" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="X21" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="T21" s="4" t="inlineStr"/>
+      <c r="U21" s="4" t="inlineStr"/>
+      <c r="V21" s="4" t="inlineStr"/>
+      <c r="W21" s="4" t="inlineStr"/>
+      <c r="X21" s="4" t="inlineStr"/>
       <c r="Y21" s="4" t="inlineStr"/>
       <c r="Z21" s="4" t="inlineStr"/>
     </row>
@@ -1966,7 +1966,11 @@
           <t>R</t>
         </is>
       </c>
-      <c r="F25" s="4" t="inlineStr"/>
+      <c r="F25" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="G25" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1987,39 +1991,55 @@
           <t>R</t>
         </is>
       </c>
-      <c r="K25" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="L25" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="M25" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="N25" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="K25" s="4" t="inlineStr"/>
+      <c r="L25" s="4" t="inlineStr"/>
+      <c r="M25" s="4" t="inlineStr"/>
+      <c r="N25" s="4" t="inlineStr"/>
       <c r="O25" s="5" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="P25" s="4" t="inlineStr"/>
-      <c r="Q25" s="4" t="inlineStr"/>
-      <c r="R25" s="4" t="inlineStr"/>
-      <c r="S25" s="4" t="inlineStr"/>
-      <c r="T25" s="4" t="inlineStr"/>
-      <c r="U25" s="4" t="inlineStr"/>
-      <c r="V25" s="4" t="inlineStr"/>
-      <c r="W25" s="4" t="inlineStr"/>
+      <c r="P25" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="Q25" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="R25" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="S25" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="T25" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="U25" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="V25" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="W25" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="X25" s="4" t="inlineStr"/>
       <c r="Y25" s="4" t="inlineStr"/>
       <c r="Z25" s="4" t="inlineStr"/>
@@ -2030,10 +2050,26 @@
           <t>Mar</t>
         </is>
       </c>
-      <c r="B26" s="4" t="inlineStr"/>
-      <c r="C26" s="4" t="inlineStr"/>
-      <c r="D26" s="4" t="inlineStr"/>
-      <c r="E26" s="4" t="inlineStr"/>
+      <c r="B26" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="C26" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D26" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="E26" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="F26" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2055,69 +2091,37 @@
         </is>
       </c>
       <c r="J26" s="4" t="inlineStr"/>
-      <c r="K26" s="4" t="inlineStr"/>
-      <c r="L26" s="4" t="inlineStr"/>
-      <c r="M26" s="4" t="inlineStr"/>
+      <c r="K26" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="L26" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="M26" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="N26" s="5" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="O26" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="P26" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="Q26" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="R26" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="S26" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="T26" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="U26" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="V26" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="W26" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="X26" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="Y26" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="O26" s="4" t="inlineStr"/>
+      <c r="P26" s="4" t="inlineStr"/>
+      <c r="Q26" s="4" t="inlineStr"/>
+      <c r="R26" s="4" t="inlineStr"/>
+      <c r="S26" s="4" t="inlineStr"/>
+      <c r="T26" s="4" t="inlineStr"/>
+      <c r="U26" s="4" t="inlineStr"/>
+      <c r="V26" s="4" t="inlineStr"/>
+      <c r="W26" s="4" t="inlineStr"/>
+      <c r="X26" s="4" t="inlineStr"/>
+      <c r="Y26" s="4" t="inlineStr"/>
       <c r="Z26" s="4" t="inlineStr"/>
     </row>
     <row r="27">
@@ -2156,7 +2160,11 @@
           <t>R</t>
         </is>
       </c>
-      <c r="H27" s="4" t="inlineStr"/>
+      <c r="H27" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="I27" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2167,29 +2175,29 @@
           <t>R</t>
         </is>
       </c>
-      <c r="K27" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="L27" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="M27" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="K27" s="4" t="inlineStr"/>
+      <c r="L27" s="4" t="inlineStr"/>
+      <c r="M27" s="4" t="inlineStr"/>
       <c r="N27" s="5" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="O27" s="4" t="inlineStr"/>
-      <c r="P27" s="4" t="inlineStr"/>
-      <c r="Q27" s="4" t="inlineStr"/>
+      <c r="O27" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="P27" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="Q27" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="R27" s="4" t="inlineStr"/>
       <c r="S27" s="4" t="inlineStr"/>
       <c r="T27" s="4" t="inlineStr"/>
@@ -2213,31 +2221,11 @@
       <c r="F28" s="4" t="inlineStr"/>
       <c r="G28" s="4" t="inlineStr"/>
       <c r="H28" s="4" t="inlineStr"/>
-      <c r="I28" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="J28" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="K28" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="L28" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="M28" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="I28" s="4" t="inlineStr"/>
+      <c r="J28" s="4" t="inlineStr"/>
+      <c r="K28" s="4" t="inlineStr"/>
+      <c r="L28" s="4" t="inlineStr"/>
+      <c r="M28" s="4" t="inlineStr"/>
       <c r="N28" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2268,7 +2256,11 @@
           <t>R</t>
         </is>
       </c>
-      <c r="T28" s="4" t="inlineStr"/>
+      <c r="T28" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="U28" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2308,10 +2300,26 @@
       <c r="E29" s="4" t="inlineStr"/>
       <c r="F29" s="4" t="inlineStr"/>
       <c r="G29" s="4" t="inlineStr"/>
-      <c r="H29" s="4" t="inlineStr"/>
-      <c r="I29" s="4" t="inlineStr"/>
-      <c r="J29" s="4" t="inlineStr"/>
-      <c r="K29" s="4" t="inlineStr"/>
+      <c r="H29" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="I29" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="J29" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="K29" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="L29" s="4" t="inlineStr"/>
       <c r="M29" s="5" t="inlineStr">
         <is>
@@ -2391,8 +2399,16 @@
       <c r="D30" s="4" t="inlineStr"/>
       <c r="E30" s="4" t="inlineStr"/>
       <c r="F30" s="4" t="inlineStr"/>
-      <c r="G30" s="4" t="inlineStr"/>
-      <c r="H30" s="4" t="inlineStr"/>
+      <c r="G30" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="H30" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="I30" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2403,26 +2419,10 @@
           <t>R</t>
         </is>
       </c>
-      <c r="K30" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="L30" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="M30" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="N30" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="K30" s="4" t="inlineStr"/>
+      <c r="L30" s="4" t="inlineStr"/>
+      <c r="M30" s="4" t="inlineStr"/>
+      <c r="N30" s="4" t="inlineStr"/>
       <c r="O30" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2611,34 +2611,18 @@
           <t>Lun</t>
         </is>
       </c>
-      <c r="B35" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="C35" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D35" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="E35" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="F35" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="B35" s="4" t="inlineStr"/>
+      <c r="C35" s="4" t="inlineStr"/>
+      <c r="D35" s="4" t="inlineStr"/>
+      <c r="E35" s="4" t="inlineStr"/>
+      <c r="F35" s="4" t="inlineStr"/>
       <c r="G35" s="4" t="inlineStr"/>
       <c r="H35" s="4" t="inlineStr"/>
-      <c r="I35" s="4" t="inlineStr"/>
+      <c r="I35" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="J35" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2699,10 +2683,26 @@
           <t>R</t>
         </is>
       </c>
-      <c r="V35" s="4" t="inlineStr"/>
-      <c r="W35" s="4" t="inlineStr"/>
-      <c r="X35" s="4" t="inlineStr"/>
-      <c r="Y35" s="4" t="inlineStr"/>
+      <c r="V35" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="W35" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="X35" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="Y35" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="Z35" s="4" t="inlineStr"/>
     </row>
     <row r="36">
@@ -2719,26 +2719,10 @@
       <c r="G36" s="4" t="inlineStr"/>
       <c r="H36" s="4" t="inlineStr"/>
       <c r="I36" s="4" t="inlineStr"/>
-      <c r="J36" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="K36" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="L36" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="M36" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="J36" s="4" t="inlineStr"/>
+      <c r="K36" s="4" t="inlineStr"/>
+      <c r="L36" s="4" t="inlineStr"/>
+      <c r="M36" s="4" t="inlineStr"/>
       <c r="N36" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2759,7 +2743,11 @@
           <t>R</t>
         </is>
       </c>
-      <c r="R36" s="4" t="inlineStr"/>
+      <c r="R36" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="S36" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2790,7 +2778,11 @@
           <t>R</t>
         </is>
       </c>
-      <c r="Y36" s="4" t="inlineStr"/>
+      <c r="Y36" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="Z36" s="4" t="inlineStr"/>
     </row>
     <row r="37">
@@ -2804,16 +2796,8 @@
       <c r="D37" s="4" t="inlineStr"/>
       <c r="E37" s="4" t="inlineStr"/>
       <c r="F37" s="4" t="inlineStr"/>
-      <c r="G37" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="H37" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="G37" s="4" t="inlineStr"/>
+      <c r="H37" s="4" t="inlineStr"/>
       <c r="I37" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2824,9 +2808,21 @@
           <t>R</t>
         </is>
       </c>
-      <c r="K37" s="4" t="inlineStr"/>
-      <c r="L37" s="4" t="inlineStr"/>
-      <c r="M37" s="4" t="inlineStr"/>
+      <c r="K37" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="L37" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="M37" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="N37" s="4" t="inlineStr"/>
       <c r="O37" s="5" t="inlineStr">
         <is>
@@ -2932,21 +2928,9 @@
       <c r="H39" s="4" t="inlineStr"/>
       <c r="I39" s="4" t="inlineStr"/>
       <c r="J39" s="4" t="inlineStr"/>
-      <c r="K39" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="L39" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="M39" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="K39" s="4" t="inlineStr"/>
+      <c r="L39" s="4" t="inlineStr"/>
+      <c r="M39" s="4" t="inlineStr"/>
       <c r="N39" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2967,7 +2951,11 @@
           <t>R</t>
         </is>
       </c>
-      <c r="R39" s="4" t="inlineStr"/>
+      <c r="R39" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="S39" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2998,7 +2986,11 @@
           <t>R</t>
         </is>
       </c>
-      <c r="Y39" s="4" t="inlineStr"/>
+      <c r="Y39" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="Z39" s="4" t="inlineStr"/>
     </row>
     <row r="40">
@@ -3011,25 +3003,29 @@
       <c r="C40" s="4" t="inlineStr"/>
       <c r="D40" s="4" t="inlineStr"/>
       <c r="E40" s="4" t="inlineStr"/>
-      <c r="F40" s="4" t="inlineStr"/>
-      <c r="G40" s="4" t="inlineStr"/>
-      <c r="H40" s="4" t="inlineStr"/>
-      <c r="I40" s="4" t="inlineStr"/>
-      <c r="J40" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="K40" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="L40" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="F40" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="G40" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="H40" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="I40" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="J40" s="4" t="inlineStr"/>
+      <c r="K40" s="4" t="inlineStr"/>
+      <c r="L40" s="4" t="inlineStr"/>
       <c r="M40" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -3075,27 +3071,15 @@
           <t>R</t>
         </is>
       </c>
-      <c r="V40" s="4" t="inlineStr"/>
-      <c r="W40" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="X40" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="Y40" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="Z40" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="V40" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="W40" s="4" t="inlineStr"/>
+      <c r="X40" s="4" t="inlineStr"/>
+      <c r="Y40" s="4" t="inlineStr"/>
+      <c r="Z40" s="4" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="4" t="inlineStr">
@@ -3105,23 +3089,35 @@
       </c>
       <c r="B41" s="4" t="inlineStr"/>
       <c r="C41" s="4" t="inlineStr"/>
-      <c r="D41" s="4" t="inlineStr"/>
-      <c r="E41" s="4" t="inlineStr"/>
-      <c r="F41" s="4" t="inlineStr"/>
-      <c r="G41" s="4" t="inlineStr"/>
-      <c r="H41" s="4" t="inlineStr"/>
+      <c r="D41" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="E41" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="F41" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="G41" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="H41" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="I41" s="4" t="inlineStr"/>
       <c r="J41" s="4" t="inlineStr"/>
-      <c r="K41" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="L41" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="K41" s="4" t="inlineStr"/>
+      <c r="L41" s="4" t="inlineStr"/>
       <c r="M41" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -3157,7 +3153,11 @@
           <t>R</t>
         </is>
       </c>
-      <c r="T41" s="4" t="inlineStr"/>
+      <c r="T41" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="U41" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -3308,47 +3308,23 @@
           <t>Mar</t>
         </is>
       </c>
-      <c r="B46" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="C46" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D46" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="E46" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="F46" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="G46" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="H46" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="B46" s="4" t="inlineStr"/>
+      <c r="C46" s="4" t="inlineStr"/>
+      <c r="D46" s="4" t="inlineStr"/>
+      <c r="E46" s="4" t="inlineStr"/>
+      <c r="F46" s="4" t="inlineStr"/>
+      <c r="G46" s="4" t="inlineStr"/>
+      <c r="H46" s="4" t="inlineStr"/>
       <c r="I46" s="5" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="J46" s="4" t="inlineStr"/>
+      <c r="J46" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="K46" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -3359,26 +3335,62 @@
           <t>R</t>
         </is>
       </c>
-      <c r="M46" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="M46" s="4" t="inlineStr"/>
       <c r="N46" s="5" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="O46" s="4" t="inlineStr"/>
-      <c r="P46" s="4" t="inlineStr"/>
-      <c r="Q46" s="4" t="inlineStr"/>
-      <c r="R46" s="4" t="inlineStr"/>
-      <c r="S46" s="4" t="inlineStr"/>
-      <c r="T46" s="4" t="inlineStr"/>
-      <c r="U46" s="4" t="inlineStr"/>
-      <c r="V46" s="4" t="inlineStr"/>
-      <c r="W46" s="4" t="inlineStr"/>
-      <c r="X46" s="4" t="inlineStr"/>
+      <c r="O46" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="P46" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="Q46" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="R46" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="S46" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="T46" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="U46" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="V46" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="W46" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="X46" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="Y46" s="4" t="inlineStr"/>
       <c r="Z46" s="4" t="inlineStr"/>
     </row>
@@ -3388,50 +3400,18 @@
           <t>Mie</t>
         </is>
       </c>
-      <c r="B47" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="C47" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D47" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="E47" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="F47" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="B47" s="4" t="inlineStr"/>
+      <c r="C47" s="4" t="inlineStr"/>
+      <c r="D47" s="4" t="inlineStr"/>
+      <c r="E47" s="4" t="inlineStr"/>
+      <c r="F47" s="4" t="inlineStr"/>
       <c r="G47" s="4" t="inlineStr"/>
       <c r="H47" s="4" t="inlineStr"/>
       <c r="I47" s="4" t="inlineStr"/>
       <c r="J47" s="4" t="inlineStr"/>
-      <c r="K47" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="L47" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="M47" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="K47" s="4" t="inlineStr"/>
+      <c r="L47" s="4" t="inlineStr"/>
+      <c r="M47" s="4" t="inlineStr"/>
       <c r="N47" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -3472,10 +3452,26 @@
           <t>R</t>
         </is>
       </c>
-      <c r="V47" s="4" t="inlineStr"/>
-      <c r="W47" s="4" t="inlineStr"/>
-      <c r="X47" s="4" t="inlineStr"/>
-      <c r="Y47" s="4" t="inlineStr"/>
+      <c r="V47" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="W47" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="X47" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="Y47" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="Z47" s="4" t="inlineStr"/>
     </row>
     <row r="48">
@@ -3484,45 +3480,29 @@
           <t>Jue</t>
         </is>
       </c>
-      <c r="B48" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="C48" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D48" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="E48" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="F48" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="G48" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="H48" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="B48" s="4" t="inlineStr"/>
+      <c r="C48" s="4" t="inlineStr"/>
+      <c r="D48" s="4" t="inlineStr"/>
+      <c r="E48" s="4" t="inlineStr"/>
+      <c r="F48" s="4" t="inlineStr"/>
+      <c r="G48" s="4" t="inlineStr"/>
+      <c r="H48" s="4" t="inlineStr"/>
       <c r="I48" s="4" t="inlineStr"/>
-      <c r="J48" s="4" t="inlineStr"/>
-      <c r="K48" s="4" t="inlineStr"/>
-      <c r="L48" s="4" t="inlineStr"/>
+      <c r="J48" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="K48" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="L48" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="M48" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -3543,11 +3523,7 @@
           <t>R</t>
         </is>
       </c>
-      <c r="Q48" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="Q48" s="4" t="inlineStr"/>
       <c r="R48" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -3578,8 +3554,16 @@
           <t>R</t>
         </is>
       </c>
-      <c r="X48" s="4" t="inlineStr"/>
-      <c r="Y48" s="4" t="inlineStr"/>
+      <c r="X48" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="Y48" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="Z48" s="4" t="inlineStr"/>
     </row>
     <row r="49">
@@ -3588,23 +3572,55 @@
           <t>Vie</t>
         </is>
       </c>
-      <c r="B49" s="4" t="inlineStr"/>
-      <c r="C49" s="4" t="inlineStr"/>
-      <c r="D49" s="4" t="inlineStr"/>
-      <c r="E49" s="4" t="inlineStr"/>
-      <c r="F49" s="4" t="inlineStr"/>
-      <c r="G49" s="4" t="inlineStr"/>
-      <c r="H49" s="4" t="inlineStr"/>
-      <c r="I49" s="4" t="inlineStr"/>
-      <c r="J49" s="4" t="inlineStr"/>
+      <c r="B49" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="C49" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D49" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="E49" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="F49" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="G49" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="H49" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="I49" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="J49" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="K49" s="4" t="inlineStr"/>
       <c r="L49" s="4" t="inlineStr"/>
       <c r="M49" s="4" t="inlineStr"/>
-      <c r="N49" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="N49" s="4" t="inlineStr"/>
       <c r="O49" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -3635,31 +3651,11 @@
           <t>R</t>
         </is>
       </c>
-      <c r="U49" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="V49" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="W49" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="X49" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="Y49" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="U49" s="4" t="inlineStr"/>
+      <c r="V49" s="4" t="inlineStr"/>
+      <c r="W49" s="4" t="inlineStr"/>
+      <c r="X49" s="4" t="inlineStr"/>
+      <c r="Y49" s="4" t="inlineStr"/>
       <c r="Z49" s="4" t="inlineStr"/>
     </row>
     <row r="50">
@@ -3694,28 +3690,20 @@
           <t>R</t>
         </is>
       </c>
-      <c r="H50" s="4" t="inlineStr"/>
-      <c r="I50" s="4" t="inlineStr"/>
-      <c r="J50" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="K50" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="L50" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="M50" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="H50" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="I50" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="J50" s="4" t="inlineStr"/>
+      <c r="K50" s="4" t="inlineStr"/>
+      <c r="L50" s="4" t="inlineStr"/>
+      <c r="M50" s="4" t="inlineStr"/>
       <c r="N50" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -3761,8 +3749,16 @@
           <t>R</t>
         </is>
       </c>
-      <c r="W50" s="4" t="inlineStr"/>
-      <c r="X50" s="4" t="inlineStr"/>
+      <c r="W50" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="X50" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="Y50" s="4" t="inlineStr"/>
       <c r="Z50" s="4" t="inlineStr"/>
     </row>
@@ -3781,7 +3777,11 @@
       <c r="H51" s="4" t="inlineStr"/>
       <c r="I51" s="4" t="inlineStr"/>
       <c r="J51" s="4" t="inlineStr"/>
-      <c r="K51" s="4" t="inlineStr"/>
+      <c r="K51" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="L51" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -3812,12 +3812,12 @@
           <t>R</t>
         </is>
       </c>
-      <c r="R51" s="4" t="inlineStr"/>
-      <c r="S51" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="R51" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="S51" s="4" t="inlineStr"/>
       <c r="T51" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -3952,11 +3952,7 @@
       <c r="J55" s="4" t="inlineStr"/>
       <c r="K55" s="4" t="inlineStr"/>
       <c r="L55" s="4" t="inlineStr"/>
-      <c r="M55" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="M55" s="4" t="inlineStr"/>
       <c r="N55" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -3987,7 +3983,11 @@
           <t>R</t>
         </is>
       </c>
-      <c r="T55" s="4" t="inlineStr"/>
+      <c r="T55" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="U55" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -4053,19 +4053,47 @@
           <t>Mie</t>
         </is>
       </c>
-      <c r="B57" s="4" t="inlineStr"/>
-      <c r="C57" s="4" t="inlineStr"/>
-      <c r="D57" s="4" t="inlineStr"/>
-      <c r="E57" s="4" t="inlineStr"/>
-      <c r="F57" s="4" t="inlineStr"/>
-      <c r="G57" s="4" t="inlineStr"/>
-      <c r="H57" s="4" t="inlineStr"/>
-      <c r="I57" s="4" t="inlineStr"/>
-      <c r="J57" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="B57" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="C57" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D57" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="E57" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="F57" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="G57" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="H57" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="I57" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="J57" s="4" t="inlineStr"/>
       <c r="K57" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -4096,51 +4124,15 @@
           <t>R</t>
         </is>
       </c>
-      <c r="Q57" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="R57" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="S57" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="T57" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="U57" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="V57" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="W57" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="X57" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="Y57" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="Q57" s="4" t="inlineStr"/>
+      <c r="R57" s="4" t="inlineStr"/>
+      <c r="S57" s="4" t="inlineStr"/>
+      <c r="T57" s="4" t="inlineStr"/>
+      <c r="U57" s="4" t="inlineStr"/>
+      <c r="V57" s="4" t="inlineStr"/>
+      <c r="W57" s="4" t="inlineStr"/>
+      <c r="X57" s="4" t="inlineStr"/>
+      <c r="Y57" s="4" t="inlineStr"/>
       <c r="Z57" s="4" t="inlineStr"/>
     </row>
     <row r="58">
@@ -4158,7 +4150,11 @@
       <c r="H58" s="4" t="inlineStr"/>
       <c r="I58" s="4" t="inlineStr"/>
       <c r="J58" s="4" t="inlineStr"/>
-      <c r="K58" s="4" t="inlineStr"/>
+      <c r="K58" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="L58" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -4233,55 +4229,23 @@
           <t>Vie</t>
         </is>
       </c>
-      <c r="B59" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="C59" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D59" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="E59" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="F59" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="G59" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="H59" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="I59" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="J59" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="B59" s="4" t="inlineStr"/>
+      <c r="C59" s="4" t="inlineStr"/>
+      <c r="D59" s="4" t="inlineStr"/>
+      <c r="E59" s="4" t="inlineStr"/>
+      <c r="F59" s="4" t="inlineStr"/>
+      <c r="G59" s="4" t="inlineStr"/>
+      <c r="H59" s="4" t="inlineStr"/>
+      <c r="I59" s="4" t="inlineStr"/>
+      <c r="J59" s="4" t="inlineStr"/>
       <c r="K59" s="4" t="inlineStr"/>
       <c r="L59" s="4" t="inlineStr"/>
       <c r="M59" s="4" t="inlineStr"/>
-      <c r="N59" s="4" t="inlineStr"/>
+      <c r="N59" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="O59" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -4322,9 +4286,21 @@
           <t>R</t>
         </is>
       </c>
-      <c r="W59" s="4" t="inlineStr"/>
-      <c r="X59" s="4" t="inlineStr"/>
-      <c r="Y59" s="4" t="inlineStr"/>
+      <c r="W59" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="X59" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="Y59" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="Z59" s="4" t="inlineStr"/>
     </row>
     <row r="60">
@@ -4334,10 +4310,26 @@
         </is>
       </c>
       <c r="B60" s="4" t="inlineStr"/>
-      <c r="C60" s="4" t="inlineStr"/>
-      <c r="D60" s="4" t="inlineStr"/>
-      <c r="E60" s="4" t="inlineStr"/>
-      <c r="F60" s="4" t="inlineStr"/>
+      <c r="C60" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D60" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="E60" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="F60" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="G60" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -4348,20 +4340,32 @@
           <t>R</t>
         </is>
       </c>
-      <c r="I60" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="I60" s="4" t="inlineStr"/>
       <c r="J60" s="5" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="K60" s="4" t="inlineStr"/>
-      <c r="L60" s="4" t="inlineStr"/>
-      <c r="M60" s="4" t="inlineStr"/>
-      <c r="N60" s="4" t="inlineStr"/>
+      <c r="K60" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="L60" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="M60" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="N60" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="O60" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -4397,31 +4401,11 @@
           <t>R</t>
         </is>
       </c>
-      <c r="V60" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="W60" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="X60" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="Y60" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="Z60" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="V60" s="4" t="inlineStr"/>
+      <c r="W60" s="4" t="inlineStr"/>
+      <c r="X60" s="4" t="inlineStr"/>
+      <c r="Y60" s="4" t="inlineStr"/>
+      <c r="Z60" s="4" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="4" t="inlineStr">
@@ -4456,8 +4440,16 @@
           <t>R</t>
         </is>
       </c>
-      <c r="I61" s="4" t="inlineStr"/>
-      <c r="J61" s="4" t="inlineStr"/>
+      <c r="I61" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="J61" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="K61" s="4" t="inlineStr"/>
       <c r="L61" s="4" t="inlineStr"/>
       <c r="M61" s="5" t="inlineStr">
@@ -4505,8 +4497,16 @@
           <t>R</t>
         </is>
       </c>
-      <c r="V61" s="4" t="inlineStr"/>
-      <c r="W61" s="4" t="inlineStr"/>
+      <c r="V61" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="W61" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="X61" s="4" t="inlineStr"/>
       <c r="Y61" s="4" t="inlineStr"/>
       <c r="Z61" s="4" t="inlineStr"/>
@@ -4626,11 +4626,7 @@
           <t>R</t>
         </is>
       </c>
-      <c r="F65" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="F65" s="4" t="inlineStr"/>
       <c r="G65" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -4646,60 +4642,40 @@
           <t>R</t>
         </is>
       </c>
-      <c r="J65" s="4" t="inlineStr"/>
-      <c r="K65" s="4" t="inlineStr"/>
-      <c r="L65" s="4" t="inlineStr"/>
-      <c r="M65" s="4" t="inlineStr"/>
+      <c r="J65" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="K65" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="L65" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="M65" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="N65" s="5" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="O65" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="P65" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="Q65" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="R65" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="S65" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="T65" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="U65" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="V65" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="W65" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="O65" s="4" t="inlineStr"/>
+      <c r="P65" s="4" t="inlineStr"/>
+      <c r="Q65" s="4" t="inlineStr"/>
+      <c r="R65" s="4" t="inlineStr"/>
+      <c r="S65" s="4" t="inlineStr"/>
+      <c r="T65" s="4" t="inlineStr"/>
+      <c r="U65" s="4" t="inlineStr"/>
+      <c r="V65" s="4" t="inlineStr"/>
+      <c r="W65" s="4" t="inlineStr"/>
       <c r="X65" s="4" t="inlineStr"/>
       <c r="Y65" s="4" t="inlineStr"/>
       <c r="Z65" s="4" t="inlineStr"/>
@@ -4740,14 +4716,22 @@
           <t>R</t>
         </is>
       </c>
-      <c r="H66" s="4" t="inlineStr"/>
-      <c r="I66" s="4" t="inlineStr"/>
-      <c r="J66" s="4" t="inlineStr"/>
-      <c r="K66" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="H66" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="I66" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="J66" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="K66" s="4" t="inlineStr"/>
       <c r="L66" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -4768,11 +4752,7 @@
           <t>R</t>
         </is>
       </c>
-      <c r="P66" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="P66" s="4" t="inlineStr"/>
       <c r="Q66" s="4" t="inlineStr"/>
       <c r="R66" s="4" t="inlineStr"/>
       <c r="S66" s="4" t="inlineStr"/>
@@ -4857,41 +4837,65 @@
           <t>R</t>
         </is>
       </c>
-      <c r="I68" s="4" t="inlineStr"/>
-      <c r="J68" s="4" t="inlineStr"/>
-      <c r="K68" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="L68" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="M68" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="N68" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="I68" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="J68" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="K68" s="4" t="inlineStr"/>
+      <c r="L68" s="4" t="inlineStr"/>
+      <c r="M68" s="4" t="inlineStr"/>
+      <c r="N68" s="4" t="inlineStr"/>
       <c r="O68" s="5" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="P68" s="4" t="inlineStr"/>
-      <c r="Q68" s="4" t="inlineStr"/>
-      <c r="R68" s="4" t="inlineStr"/>
-      <c r="S68" s="4" t="inlineStr"/>
-      <c r="T68" s="4" t="inlineStr"/>
-      <c r="U68" s="4" t="inlineStr"/>
-      <c r="V68" s="4" t="inlineStr"/>
-      <c r="W68" s="4" t="inlineStr"/>
+      <c r="P68" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="Q68" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="R68" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="S68" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="T68" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="U68" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="V68" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="W68" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="X68" s="4" t="inlineStr"/>
       <c r="Y68" s="4" t="inlineStr"/>
       <c r="Z68" s="4" t="inlineStr"/>
@@ -4909,15 +4913,27 @@
       <c r="F69" s="4" t="inlineStr"/>
       <c r="G69" s="4" t="inlineStr"/>
       <c r="H69" s="4" t="inlineStr"/>
-      <c r="I69" s="4" t="inlineStr"/>
-      <c r="J69" s="4" t="inlineStr"/>
-      <c r="K69" s="4" t="inlineStr"/>
-      <c r="L69" s="4" t="inlineStr"/>
-      <c r="M69" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="I69" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="J69" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="K69" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="L69" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="M69" s="4" t="inlineStr"/>
       <c r="N69" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -4943,7 +4959,11 @@
           <t>R</t>
         </is>
       </c>
-      <c r="S69" s="4" t="inlineStr"/>
+      <c r="S69" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="T69" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -4969,11 +4989,7 @@
           <t>R</t>
         </is>
       </c>
-      <c r="Y69" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="Y69" s="4" t="inlineStr"/>
       <c r="Z69" s="4" t="inlineStr"/>
     </row>
     <row r="70">
@@ -4983,9 +4999,21 @@
         </is>
       </c>
       <c r="B70" s="4" t="inlineStr"/>
-      <c r="C70" s="4" t="inlineStr"/>
-      <c r="D70" s="4" t="inlineStr"/>
-      <c r="E70" s="4" t="inlineStr"/>
+      <c r="C70" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D70" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="E70" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="F70" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -5001,11 +5029,7 @@
           <t>R</t>
         </is>
       </c>
-      <c r="I70" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="I70" s="4" t="inlineStr"/>
       <c r="J70" s="4" t="inlineStr"/>
       <c r="K70" s="5" t="inlineStr">
         <is>
@@ -5080,31 +5104,11 @@
       </c>
       <c r="B71" s="4" t="inlineStr"/>
       <c r="C71" s="4" t="inlineStr"/>
-      <c r="D71" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="E71" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="F71" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="G71" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="H71" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="D71" s="4" t="inlineStr"/>
+      <c r="E71" s="4" t="inlineStr"/>
+      <c r="F71" s="4" t="inlineStr"/>
+      <c r="G71" s="4" t="inlineStr"/>
+      <c r="H71" s="4" t="inlineStr"/>
       <c r="I71" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -5115,18 +5119,22 @@
           <t>R</t>
         </is>
       </c>
-      <c r="K71" s="4" t="inlineStr"/>
-      <c r="L71" s="4" t="inlineStr"/>
+      <c r="K71" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="L71" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="M71" s="5" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="N71" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="N71" s="4" t="inlineStr"/>
       <c r="O71" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -5162,16 +5170,8 @@
           <t>R</t>
         </is>
       </c>
-      <c r="V71" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="W71" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="V71" s="4" t="inlineStr"/>
+      <c r="W71" s="4" t="inlineStr"/>
       <c r="X71" s="4" t="inlineStr"/>
       <c r="Y71" s="4" t="inlineStr"/>
       <c r="Z71" s="4" t="inlineStr"/>
@@ -5659,29 +5659,17 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>14:30</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>16:30</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>17:00</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>21:00</t>
-        </is>
-      </c>
+          <t>Descanso</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -5735,17 +5723,17 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -5754,7 +5742,7 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="I4" t="n">
         <v>0.5</v>
@@ -5778,29 +5766,29 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I5" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="6">
@@ -5826,21 +5814,21 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>9</v>
+        <v>6.5</v>
       </c>
       <c r="I6" t="n">
         <v>0.5</v>
@@ -5864,29 +5852,29 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>20:30</t>
+          <t>21:30</t>
         </is>
       </c>
       <c r="H7" t="n">
         <v>9</v>
       </c>
       <c r="I7" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="8">
@@ -5907,17 +5895,29 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Descanso</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>17:30</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>20:30</t>
+        </is>
+      </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="9">
@@ -5938,17 +5938,29 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Descanso</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
+          <t>09:00</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="10">
@@ -5974,7 +5986,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -5984,14 +5996,14 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I10" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -6017,24 +6029,24 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I11" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -6060,24 +6072,24 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="I12" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="13">
@@ -6108,19 +6120,19 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>6</v>
+        <v>8.5</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
@@ -6141,29 +6153,29 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>21:30</t>
         </is>
       </c>
       <c r="H14" t="n">
         <v>8.5</v>
       </c>
       <c r="I14" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="15">
@@ -6184,29 +6196,17 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>12:30</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>17:30</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>18:00</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>20:30</t>
-        </is>
-      </c>
+          <t>Descanso</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
       <c r="H15" t="n">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -6232,24 +6232,24 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>6.5</v>
+        <v>9</v>
       </c>
       <c r="I16" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
@@ -6270,7 +6270,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -6280,19 +6280,19 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I17" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="18">
@@ -6318,24 +6318,24 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="I18" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="19">
@@ -6356,30 +6356,20 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>12:30</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>18:00</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>18:30</t>
-        </is>
-      </c>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr">
         <is>
           <t>21:00</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>8</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0.5</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -6399,20 +6389,30 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
           <t>14:30</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr">
         <is>
           <t>21:00</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
+        <v>8.5</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -6432,20 +6432,30 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>12:30</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
+          <t>11:30</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>13:30</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
       <c r="G21" t="inlineStr">
         <is>
           <t>21:30</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>9</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
+        <v>8</v>
+      </c>
+      <c r="I21" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -6496,30 +6506,20 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>09:00</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>11:30</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>13:00</t>
-        </is>
-      </c>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="H23" t="n">
         <v>8.5</v>
       </c>
-      <c r="I23" t="n">
-        <v>1.5</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -6539,30 +6539,20 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>13:00</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>17:00</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>17:30</t>
-        </is>
-      </c>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr">
         <is>
-          <t>20:30</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>7</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0.5</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -6582,12 +6572,12 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -6601,10 +6591,10 @@
         </is>
       </c>
       <c r="H25" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="I25" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="26">
@@ -6656,30 +6646,20 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>13:30</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>17:00</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>17:30</t>
-        </is>
-      </c>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr">
         <is>
-          <t>20:30</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0.5</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6699,29 +6679,29 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
           <t>13:00</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>19:00</t>
-        </is>
-      </c>
       <c r="F28" t="inlineStr">
         <is>
+          <t>14:30</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
           <t>19:30</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>21:30</t>
-        </is>
-      </c>
       <c r="H28" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I28" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="29">
@@ -6742,17 +6722,17 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -6761,10 +6741,10 @@
         </is>
       </c>
       <c r="H29" t="n">
-        <v>6.5</v>
+        <v>8.5</v>
       </c>
       <c r="I29" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30">
@@ -6816,26 +6796,26 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="I31" t="n">
         <v>0.5</v>
@@ -6859,30 +6839,20 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>09:00</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>11:30</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>13:30</t>
-        </is>
-      </c>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>8</v>
-      </c>
-      <c r="I32" t="n">
-        <v>2</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -6902,29 +6872,29 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="I33" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="34">
@@ -6945,20 +6915,30 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>15:00</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr"/>
+          <t>09:00</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>13:30</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>6</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
+        <v>7.5</v>
+      </c>
+      <c r="I34" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -6983,24 +6963,24 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="H35" t="n">
         <v>9</v>
       </c>
       <c r="I35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36">
@@ -7021,17 +7001,17 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -7040,7 +7020,7 @@
         </is>
       </c>
       <c r="H36" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="I36" t="n">
         <v>0.5</v>
@@ -7064,19 +7044,11 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>14:30</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>18:00</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>18:30</t>
-        </is>
-      </c>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr">
         <is>
           <t>21:00</t>
@@ -7085,9 +7057,7 @@
       <c r="H37" t="n">
         <v>6</v>
       </c>
-      <c r="I37" t="n">
-        <v>0.5</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -7138,20 +7108,30 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
+          <t>09:00</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
           <t>13:00</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr"/>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>13:30</t>
+        </is>
+      </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>8</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
+        <v>7</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -7171,7 +7151,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="E40" t="inlineStr"/>
@@ -7182,7 +7162,7 @@
         </is>
       </c>
       <c r="H40" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="I40" t="inlineStr"/>
     </row>
@@ -7204,30 +7184,20 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>09:00</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>13:30</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>15:30</t>
-        </is>
-      </c>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="I41" t="n">
-        <v>2</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -7247,29 +7217,29 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>21:30</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I42" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="43">
@@ -7295,7 +7265,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -7305,14 +7275,14 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -7338,24 +7308,24 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="H44" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="I44" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="45">
@@ -7381,24 +7351,24 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="H45" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="I45" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="46">
@@ -7455,24 +7425,24 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="H47" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48">
@@ -7493,26 +7463,26 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
           <t>14:30</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>17:30</t>
-        </is>
-      </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="H48" t="n">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="I48" t="n">
         <v>0.5</v>
@@ -7536,12 +7506,12 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -7555,10 +7525,10 @@
         </is>
       </c>
       <c r="H49" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I49" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -7579,29 +7549,29 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="H50" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="I50" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="51">
